--- a/minerals statewise.xlsx
+++ b/minerals statewise.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eded1c9e32d3d517/GIS/datasets/statewise_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE9781CD-51C3-4F8C-B587-622E3E652FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{BE9781CD-51C3-4F8C-B587-622E3E652FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC9BF841-6BA4-4740-A28F-DEF081D98B3B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$808</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$818</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7198" uniqueCount="1182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7308" uniqueCount="1182">
   <si>
     <t>site_name</t>
   </si>
@@ -3574,7 +3574,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4408,11 +4408,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V808"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:V818"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C243" zoomScale="87" workbookViewId="0">
-      <selection activeCell="B809" sqref="B809"/>
+    <sheetView tabSelected="1" topLeftCell="A791" zoomScale="87" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:A818"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4485,7 +4486,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>125</v>
       </c>
@@ -4526,7 +4527,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>129</v>
       </c>
@@ -4561,7 +4562,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>131</v>
       </c>
@@ -4596,7 +4597,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>132</v>
       </c>
@@ -4640,7 +4641,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>135</v>
       </c>
@@ -4675,7 +4676,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>136</v>
       </c>
@@ -4722,7 +4723,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>136</v>
       </c>
@@ -4757,7 +4758,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>139</v>
       </c>
@@ -4792,7 +4793,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>140</v>
       </c>
@@ -4827,7 +4828,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>141</v>
       </c>
@@ -4874,7 +4875,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>146</v>
       </c>
@@ -4909,7 +4910,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>147</v>
       </c>
@@ -4944,7 +4945,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>148</v>
       </c>
@@ -4979,7 +4980,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>149</v>
       </c>
@@ -5014,7 +5015,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>150</v>
       </c>
@@ -5058,7 +5059,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>154</v>
       </c>
@@ -5099,7 +5100,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>155</v>
       </c>
@@ -5134,7 +5135,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>156</v>
       </c>
@@ -5178,7 +5179,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>158</v>
       </c>
@@ -5213,7 +5214,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>159</v>
       </c>
@@ -5248,7 +5249,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>160</v>
       </c>
@@ -5295,7 +5296,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>163</v>
       </c>
@@ -5330,7 +5331,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>164</v>
       </c>
@@ -5365,7 +5366,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>165</v>
       </c>
@@ -5400,7 +5401,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>166</v>
       </c>
@@ -5435,7 +5436,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>167</v>
       </c>
@@ -5470,7 +5471,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>168</v>
       </c>
@@ -5505,7 +5506,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>169</v>
       </c>
@@ -5549,7 +5550,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>172</v>
       </c>
@@ -5596,7 +5597,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>174</v>
       </c>
@@ -5640,7 +5641,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>177</v>
       </c>
@@ -5675,7 +5676,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>178</v>
       </c>
@@ -5710,7 +5711,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>179</v>
       </c>
@@ -5745,7 +5746,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>180</v>
       </c>
@@ -5830,7 +5831,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>183</v>
       </c>
@@ -5865,7 +5866,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>184</v>
       </c>
@@ -5959,7 +5960,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>188</v>
       </c>
@@ -6006,7 +6007,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>193</v>
       </c>
@@ -6041,7 +6042,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>194</v>
       </c>
@@ -6176,7 +6177,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>198</v>
       </c>
@@ -6211,7 +6212,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>204</v>
       </c>
@@ -6246,7 +6247,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>207</v>
       </c>
@@ -6281,7 +6282,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>212</v>
       </c>
@@ -6313,7 +6314,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>221</v>
       </c>
@@ -6348,7 +6349,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>223</v>
       </c>
@@ -6383,7 +6384,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>225</v>
       </c>
@@ -6418,7 +6419,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>226</v>
       </c>
@@ -6453,7 +6454,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>228</v>
       </c>
@@ -6488,7 +6489,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>229</v>
       </c>
@@ -6523,7 +6524,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>230</v>
       </c>
@@ -6558,7 +6559,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>231</v>
       </c>
@@ -6593,7 +6594,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>233</v>
       </c>
@@ -6628,7 +6629,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>234</v>
       </c>
@@ -6663,7 +6664,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>235</v>
       </c>
@@ -6838,7 +6839,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>240</v>
       </c>
@@ -6870,7 +6871,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>241</v>
       </c>
@@ -6905,7 +6906,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>242</v>
       </c>
@@ -6940,7 +6941,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>243</v>
       </c>
@@ -6975,7 +6976,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>244</v>
       </c>
@@ -7010,7 +7011,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>245</v>
       </c>
@@ -7045,7 +7046,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>246</v>
       </c>
@@ -7080,7 +7081,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>248</v>
       </c>
@@ -7115,7 +7116,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>250</v>
       </c>
@@ -7156,7 +7157,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>253</v>
       </c>
@@ -7188,7 +7189,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>254</v>
       </c>
@@ -7223,7 +7224,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>255</v>
       </c>
@@ -7255,7 +7256,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>255</v>
       </c>
@@ -7293,7 +7294,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>256</v>
       </c>
@@ -7325,7 +7326,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>257</v>
       </c>
@@ -7366,7 +7367,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>259</v>
       </c>
@@ -7404,7 +7405,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>261</v>
       </c>
@@ -7442,7 +7443,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>262</v>
       </c>
@@ -7477,7 +7478,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>263</v>
       </c>
@@ -7512,7 +7513,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>264</v>
       </c>
@@ -7550,7 +7551,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>265</v>
       </c>
@@ -7585,7 +7586,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>266</v>
       </c>
@@ -7623,7 +7624,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>267</v>
       </c>
@@ -7655,7 +7656,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>268</v>
       </c>
@@ -7690,7 +7691,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>270</v>
       </c>
@@ -7728,7 +7729,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>271</v>
       </c>
@@ -7766,7 +7767,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>272</v>
       </c>
@@ -7801,7 +7802,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>273</v>
       </c>
@@ -7836,7 +7837,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>274</v>
       </c>
@@ -7877,7 +7878,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>277</v>
       </c>
@@ -7912,7 +7913,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>278</v>
       </c>
@@ -7947,7 +7948,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>281</v>
       </c>
@@ -7988,7 +7989,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>285</v>
       </c>
@@ -8029,7 +8030,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>287</v>
       </c>
@@ -8070,7 +8071,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>289</v>
       </c>
@@ -8111,7 +8112,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>185</v>
       </c>
@@ -8146,7 +8147,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>175</v>
       </c>
@@ -8178,7 +8179,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>222</v>
       </c>
@@ -8210,7 +8211,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>297</v>
       </c>
@@ -8248,7 +8249,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>298</v>
       </c>
@@ -8292,7 +8293,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>300</v>
       </c>
@@ -8330,7 +8331,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>302</v>
       </c>
@@ -8377,7 +8378,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>305</v>
       </c>
@@ -8418,7 +8419,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>314</v>
       </c>
@@ -8453,7 +8454,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>314</v>
       </c>
@@ -8491,7 +8492,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>314</v>
       </c>
@@ -8535,7 +8536,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>314</v>
       </c>
@@ -8579,7 +8580,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>314</v>
       </c>
@@ -8623,7 +8624,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>318</v>
       </c>
@@ -8661,7 +8662,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>314</v>
       </c>
@@ -8699,7 +8700,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>314</v>
       </c>
@@ -8734,7 +8735,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>314</v>
       </c>
@@ -8772,7 +8773,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>314</v>
       </c>
@@ -8810,7 +8811,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>314</v>
       </c>
@@ -8851,7 +8852,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>323</v>
       </c>
@@ -8886,7 +8887,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>325</v>
       </c>
@@ -8927,7 +8928,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>328</v>
       </c>
@@ -8962,7 +8963,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>329</v>
       </c>
@@ -9012,7 +9013,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>331</v>
       </c>
@@ -9050,7 +9051,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>333</v>
       </c>
@@ -9100,7 +9101,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>338</v>
       </c>
@@ -9150,7 +9151,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>341</v>
       </c>
@@ -9200,7 +9201,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>346</v>
       </c>
@@ -9253,7 +9254,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>349</v>
       </c>
@@ -9297,7 +9298,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>352</v>
       </c>
@@ -9338,7 +9339,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>354</v>
       </c>
@@ -9385,7 +9386,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>357</v>
       </c>
@@ -9426,7 +9427,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>358</v>
       </c>
@@ -9467,7 +9468,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>359</v>
       </c>
@@ -9508,7 +9509,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>360</v>
       </c>
@@ -9549,7 +9550,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>361</v>
       </c>
@@ -9587,7 +9588,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>362</v>
       </c>
@@ -9716,7 +9717,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>367</v>
       </c>
@@ -9757,7 +9758,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>368</v>
       </c>
@@ -9801,7 +9802,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>370</v>
       </c>
@@ -9842,7 +9843,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>372</v>
       </c>
@@ -9889,7 +9890,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>375</v>
       </c>
@@ -9936,7 +9937,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>378</v>
       </c>
@@ -9983,7 +9984,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>382</v>
       </c>
@@ -10036,7 +10037,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>389</v>
       </c>
@@ -10071,7 +10072,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>390</v>
       </c>
@@ -10103,7 +10104,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>391</v>
       </c>
@@ -10138,7 +10139,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>392</v>
       </c>
@@ -10173,7 +10174,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>393</v>
       </c>
@@ -10208,7 +10209,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>394</v>
       </c>
@@ -10243,7 +10244,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>139</v>
       </c>
@@ -10278,7 +10279,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>395</v>
       </c>
@@ -10313,7 +10314,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>396</v>
       </c>
@@ -10348,7 +10349,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>397</v>
       </c>
@@ -10383,7 +10384,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>398</v>
       </c>
@@ -10418,7 +10419,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>399</v>
       </c>
@@ -10453,7 +10454,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>400</v>
       </c>
@@ -10488,7 +10489,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>401</v>
       </c>
@@ -10523,7 +10524,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>402</v>
       </c>
@@ -10558,7 +10559,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>403</v>
       </c>
@@ -10593,7 +10594,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="161" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>404</v>
       </c>
@@ -10628,7 +10629,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="162" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>405</v>
       </c>
@@ -10663,7 +10664,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="163" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>406</v>
       </c>
@@ -10698,7 +10699,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>407</v>
       </c>
@@ -10733,7 +10734,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="165" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>408</v>
       </c>
@@ -10768,7 +10769,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="166" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>409</v>
       </c>
@@ -10803,7 +10804,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="167" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>314</v>
       </c>
@@ -10841,7 +10842,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="168" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>314</v>
       </c>
@@ -10879,7 +10880,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="169" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>314</v>
       </c>
@@ -10917,7 +10918,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="170" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>314</v>
       </c>
@@ -10952,7 +10953,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="171" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>410</v>
       </c>
@@ -10996,7 +10997,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="172" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>277</v>
       </c>
@@ -11031,7 +11032,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="173" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>411</v>
       </c>
@@ -11063,7 +11064,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="174" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>412</v>
       </c>
@@ -11098,7 +11099,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="175" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>413</v>
       </c>
@@ -11136,7 +11137,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="176" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>276</v>
       </c>
@@ -11174,7 +11175,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="177" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>314</v>
       </c>
@@ -11218,7 +11219,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="178" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>314</v>
       </c>
@@ -11306,7 +11307,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="180" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>417</v>
       </c>
@@ -11341,7 +11342,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="181" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>418</v>
       </c>
@@ -11376,7 +11377,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="182" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>419</v>
       </c>
@@ -11481,7 +11482,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="185" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>422</v>
       </c>
@@ -11516,7 +11517,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="186" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>423</v>
       </c>
@@ -11601,7 +11602,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="188" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>425</v>
       </c>
@@ -11645,7 +11646,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="189" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>426</v>
       </c>
@@ -11698,7 +11699,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="190" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>430</v>
       </c>
@@ -11739,7 +11740,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="191" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>432</v>
       </c>
@@ -11789,7 +11790,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="192" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>435</v>
       </c>
@@ -11830,7 +11831,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>436</v>
       </c>
@@ -11874,7 +11875,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>438</v>
       </c>
@@ -11918,7 +11919,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>440</v>
       </c>
@@ -11962,7 +11963,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>442</v>
       </c>
@@ -12003,7 +12004,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>446</v>
       </c>
@@ -12035,7 +12036,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>447</v>
       </c>
@@ -12067,7 +12068,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>448</v>
       </c>
@@ -12099,7 +12100,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>455</v>
       </c>
@@ -12131,7 +12132,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>456</v>
       </c>
@@ -12166,7 +12167,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>458</v>
       </c>
@@ -12201,7 +12202,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>461</v>
       </c>
@@ -12233,7 +12234,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>462</v>
       </c>
@@ -12268,7 +12269,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>464</v>
       </c>
@@ -12300,7 +12301,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>465</v>
       </c>
@@ -12332,7 +12333,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>466</v>
       </c>
@@ -12364,7 +12365,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>468</v>
       </c>
@@ -12393,7 +12394,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>469</v>
       </c>
@@ -12425,7 +12426,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>471</v>
       </c>
@@ -12457,7 +12458,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>472</v>
       </c>
@@ -12492,7 +12493,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>474</v>
       </c>
@@ -12524,7 +12525,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>476</v>
       </c>
@@ -12556,7 +12557,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>477</v>
       </c>
@@ -12588,7 +12589,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>478</v>
       </c>
@@ -12620,7 +12621,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>479</v>
       </c>
@@ -12649,7 +12650,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>480</v>
       </c>
@@ -12681,7 +12682,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>482</v>
       </c>
@@ -12719,7 +12720,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>484</v>
       </c>
@@ -12751,7 +12752,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>485</v>
       </c>
@@ -12783,7 +12784,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>486</v>
       </c>
@@ -12815,7 +12816,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>487</v>
       </c>
@@ -12847,7 +12848,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>488</v>
       </c>
@@ -12879,7 +12880,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>489</v>
       </c>
@@ -12911,7 +12912,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>490</v>
       </c>
@@ -12943,7 +12944,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>491</v>
       </c>
@@ -12975,7 +12976,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>493</v>
       </c>
@@ -13010,7 +13011,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>495</v>
       </c>
@@ -13048,7 +13049,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>496</v>
       </c>
@@ -13080,7 +13081,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>497</v>
       </c>
@@ -13115,7 +13116,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>499</v>
       </c>
@@ -13150,7 +13151,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>501</v>
       </c>
@@ -13182,7 +13183,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>503</v>
       </c>
@@ -13214,7 +13215,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>504</v>
       </c>
@@ -13246,7 +13247,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>505</v>
       </c>
@@ -13278,7 +13279,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>506</v>
       </c>
@@ -13310,7 +13311,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>508</v>
       </c>
@@ -13342,7 +13343,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>511</v>
       </c>
@@ -13374,7 +13375,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>512</v>
       </c>
@@ -13406,7 +13407,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>513</v>
       </c>
@@ -13438,7 +13439,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>514</v>
       </c>
@@ -13467,7 +13468,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>515</v>
       </c>
@@ -13502,7 +13503,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>519</v>
       </c>
@@ -13537,7 +13538,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>521</v>
       </c>
@@ -13569,7 +13570,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>522</v>
       </c>
@@ -13601,7 +13602,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>523</v>
       </c>
@@ -13633,7 +13634,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>524</v>
       </c>
@@ -13665,7 +13666,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>525</v>
       </c>
@@ -13694,7 +13695,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>526</v>
       </c>
@@ -13726,7 +13727,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>527</v>
       </c>
@@ -13758,7 +13759,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>528</v>
       </c>
@@ -13796,7 +13797,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>529</v>
       </c>
@@ -13828,7 +13829,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>530</v>
       </c>
@@ -13860,7 +13861,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>532</v>
       </c>
@@ -13892,7 +13893,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>533</v>
       </c>
@@ -13924,7 +13925,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>534</v>
       </c>
@@ -13956,7 +13957,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>535</v>
       </c>
@@ -13988,7 +13989,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>536</v>
       </c>
@@ -14020,7 +14021,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>537</v>
       </c>
@@ -14052,7 +14053,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>538</v>
       </c>
@@ -14084,7 +14085,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>539</v>
       </c>
@@ -14116,7 +14117,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>541</v>
       </c>
@@ -14148,7 +14149,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>544</v>
       </c>
@@ -14180,7 +14181,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>545</v>
       </c>
@@ -14212,7 +14213,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>546</v>
       </c>
@@ -14241,7 +14242,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>547</v>
       </c>
@@ -14273,7 +14274,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>549</v>
       </c>
@@ -14308,7 +14309,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>550</v>
       </c>
@@ -14340,7 +14341,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>551</v>
       </c>
@@ -14372,7 +14373,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>552</v>
       </c>
@@ -14404,7 +14405,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>554</v>
       </c>
@@ -14436,7 +14437,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>555</v>
       </c>
@@ -14468,7 +14469,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="273" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>556</v>
       </c>
@@ -14500,7 +14501,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="274" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>558</v>
       </c>
@@ -14535,7 +14536,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="275" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>560</v>
       </c>
@@ -14567,7 +14568,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="276" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>561</v>
       </c>
@@ -14605,7 +14606,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>562</v>
       </c>
@@ -14637,7 +14638,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="278" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>563</v>
       </c>
@@ -14669,7 +14670,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="279" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>564</v>
       </c>
@@ -14701,7 +14702,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="280" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>565</v>
       </c>
@@ -14733,7 +14734,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="281" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>566</v>
       </c>
@@ -14765,7 +14766,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="282" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>567</v>
       </c>
@@ -14797,7 +14798,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="283" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>568</v>
       </c>
@@ -14829,7 +14830,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="284" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>570</v>
       </c>
@@ -14861,7 +14862,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="285" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>571</v>
       </c>
@@ -14893,7 +14894,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="286" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>572</v>
       </c>
@@ -14925,7 +14926,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="287" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>573</v>
       </c>
@@ -14957,7 +14958,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="288" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>574</v>
       </c>
@@ -14989,7 +14990,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="289" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>575</v>
       </c>
@@ -15021,7 +15022,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="290" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>576</v>
       </c>
@@ -15053,7 +15054,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="291" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>577</v>
       </c>
@@ -15085,7 +15086,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="292" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>578</v>
       </c>
@@ -15114,7 +15115,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="293" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>579</v>
       </c>
@@ -15146,7 +15147,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="294" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>580</v>
       </c>
@@ -15181,7 +15182,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="295" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>583</v>
       </c>
@@ -15213,7 +15214,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="296" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>584</v>
       </c>
@@ -15245,7 +15246,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="297" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>585</v>
       </c>
@@ -15277,7 +15278,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>586</v>
       </c>
@@ -15309,7 +15310,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="299" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>587</v>
       </c>
@@ -15341,7 +15342,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="300" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>588</v>
       </c>
@@ -15373,7 +15374,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="301" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>589</v>
       </c>
@@ -15405,7 +15406,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="302" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>590</v>
       </c>
@@ -15440,7 +15441,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="303" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>591</v>
       </c>
@@ -15472,7 +15473,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>592</v>
       </c>
@@ -15504,7 +15505,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>593</v>
       </c>
@@ -15536,7 +15537,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>594</v>
       </c>
@@ -15568,7 +15569,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>595</v>
       </c>
@@ -15603,7 +15604,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>596</v>
       </c>
@@ -15635,7 +15636,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>597</v>
       </c>
@@ -15667,7 +15668,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>598</v>
       </c>
@@ -15705,7 +15706,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>599</v>
       </c>
@@ -15737,7 +15738,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>600</v>
       </c>
@@ -15769,7 +15770,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>601</v>
       </c>
@@ -15801,7 +15802,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>602</v>
       </c>
@@ -15830,7 +15831,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>603</v>
       </c>
@@ -15862,7 +15863,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>605</v>
       </c>
@@ -15894,7 +15895,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>607</v>
       </c>
@@ -15926,7 +15927,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>610</v>
       </c>
@@ -15958,7 +15959,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>612</v>
       </c>
@@ -15993,7 +15994,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>234</v>
       </c>
@@ -16028,7 +16029,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="321" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>614</v>
       </c>
@@ -16060,7 +16061,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="322" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>615</v>
       </c>
@@ -16092,7 +16093,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="323" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>616</v>
       </c>
@@ -16124,7 +16125,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="324" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>617</v>
       </c>
@@ -16156,7 +16157,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="325" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>618</v>
       </c>
@@ -16188,7 +16189,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="326" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>619</v>
       </c>
@@ -16223,7 +16224,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="327" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>622</v>
       </c>
@@ -16255,7 +16256,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="328" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>261</v>
       </c>
@@ -16290,7 +16291,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="329" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>623</v>
       </c>
@@ -16325,7 +16326,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="330" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>625</v>
       </c>
@@ -16357,7 +16358,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="331" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>626</v>
       </c>
@@ -16389,7 +16390,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="332" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>627</v>
       </c>
@@ -16421,7 +16422,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="333" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>629</v>
       </c>
@@ -16456,7 +16457,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="334" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>631</v>
       </c>
@@ -16488,7 +16489,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="335" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>632</v>
       </c>
@@ -16520,7 +16521,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="336" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>633</v>
       </c>
@@ -16552,7 +16553,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="337" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>634</v>
       </c>
@@ -16584,7 +16585,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="338" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>635</v>
       </c>
@@ -16616,7 +16617,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="339" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>637</v>
       </c>
@@ -16645,7 +16646,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="340" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>638</v>
       </c>
@@ -16677,7 +16678,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="341" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>640</v>
       </c>
@@ -16715,7 +16716,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="342" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>641</v>
       </c>
@@ -16747,7 +16748,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="343" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>642</v>
       </c>
@@ -16779,7 +16780,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="344" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>643</v>
       </c>
@@ -16814,7 +16815,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="345" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>645</v>
       </c>
@@ -16846,7 +16847,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="346" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>646</v>
       </c>
@@ -16875,7 +16876,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="347" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>648</v>
       </c>
@@ -16907,7 +16908,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="348" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>354</v>
       </c>
@@ -16942,7 +16943,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="349" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>649</v>
       </c>
@@ -16974,7 +16975,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="350" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>650</v>
       </c>
@@ -17006,7 +17007,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="351" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>651</v>
       </c>
@@ -17038,7 +17039,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="352" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>652</v>
       </c>
@@ -17070,7 +17071,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="353" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>653</v>
       </c>
@@ -17102,7 +17103,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="354" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>654</v>
       </c>
@@ -17134,7 +17135,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="355" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>655</v>
       </c>
@@ -17166,7 +17167,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="356" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>656</v>
       </c>
@@ -17198,7 +17199,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="357" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>657</v>
       </c>
@@ -17233,7 +17234,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="358" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>659</v>
       </c>
@@ -17265,7 +17266,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="359" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>660</v>
       </c>
@@ -17297,7 +17298,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="360" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>661</v>
       </c>
@@ -17332,7 +17333,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="361" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>662</v>
       </c>
@@ -17364,7 +17365,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="362" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>663</v>
       </c>
@@ -17399,7 +17400,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="363" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>665</v>
       </c>
@@ -17431,7 +17432,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="364" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>666</v>
       </c>
@@ -17463,7 +17464,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="365" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>667</v>
       </c>
@@ -17504,7 +17505,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="366" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>669</v>
       </c>
@@ -17536,7 +17537,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="367" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>670</v>
       </c>
@@ -17568,7 +17569,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="368" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>671</v>
       </c>
@@ -17606,7 +17607,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="369" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>673</v>
       </c>
@@ -17638,7 +17639,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="370" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>674</v>
       </c>
@@ -17673,7 +17674,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="371" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>676</v>
       </c>
@@ -17705,7 +17706,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="372" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>678</v>
       </c>
@@ -17737,7 +17738,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="373" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>679</v>
       </c>
@@ -17769,7 +17770,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="374" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>680</v>
       </c>
@@ -17801,7 +17802,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="375" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>681</v>
       </c>
@@ -17833,7 +17834,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="376" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>682</v>
       </c>
@@ -17865,7 +17866,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="377" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>683</v>
       </c>
@@ -17897,7 +17898,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="378" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>684</v>
       </c>
@@ -17929,7 +17930,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="379" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>685</v>
       </c>
@@ -17961,7 +17962,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="380" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>686</v>
       </c>
@@ -17993,7 +17994,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="381" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>687</v>
       </c>
@@ -18028,7 +18029,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="382" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>688</v>
       </c>
@@ -18060,7 +18061,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="383" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>689</v>
       </c>
@@ -18092,7 +18093,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="384" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>690</v>
       </c>
@@ -18124,7 +18125,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="385" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>691</v>
       </c>
@@ -18156,7 +18157,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="386" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>692</v>
       </c>
@@ -18188,7 +18189,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="387" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>693</v>
       </c>
@@ -18220,7 +18221,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="388" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>694</v>
       </c>
@@ -18252,7 +18253,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="389" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>695</v>
       </c>
@@ -18284,7 +18285,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="390" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>696</v>
       </c>
@@ -18316,7 +18317,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="391" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>697</v>
       </c>
@@ -18351,7 +18352,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="392" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>698</v>
       </c>
@@ -18386,7 +18387,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="393" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>699</v>
       </c>
@@ -18418,7 +18419,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="394" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>700</v>
       </c>
@@ -18450,7 +18451,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="395" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>636</v>
       </c>
@@ -18479,7 +18480,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="396" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>701</v>
       </c>
@@ -18508,7 +18509,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="397" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>702</v>
       </c>
@@ -18540,7 +18541,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="398" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>703</v>
       </c>
@@ -18575,7 +18576,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="399" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>705</v>
       </c>
@@ -18607,7 +18608,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="400" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>706</v>
       </c>
@@ -18639,7 +18640,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="401" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>707</v>
       </c>
@@ -18680,7 +18681,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="402" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>708</v>
       </c>
@@ -18712,7 +18713,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="403" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>709</v>
       </c>
@@ -18744,7 +18745,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="404" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>710</v>
       </c>
@@ -18776,7 +18777,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="405" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>711</v>
       </c>
@@ -18808,7 +18809,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="406" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>712</v>
       </c>
@@ -18840,7 +18841,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="407" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>713</v>
       </c>
@@ -18872,7 +18873,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="408" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>714</v>
       </c>
@@ -18901,7 +18902,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="409" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>715</v>
       </c>
@@ -18933,7 +18934,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="410" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>716</v>
       </c>
@@ -18965,7 +18966,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="411" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>717</v>
       </c>
@@ -18997,7 +18998,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="412" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>718</v>
       </c>
@@ -19029,7 +19030,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="413" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>719</v>
       </c>
@@ -19061,7 +19062,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="414" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>720</v>
       </c>
@@ -19093,7 +19094,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="415" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>722</v>
       </c>
@@ -19125,7 +19126,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="416" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>723</v>
       </c>
@@ -19154,7 +19155,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="417" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>724</v>
       </c>
@@ -19189,7 +19190,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="418" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>725</v>
       </c>
@@ -19221,7 +19222,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="419" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>726</v>
       </c>
@@ -19253,7 +19254,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="420" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>727</v>
       </c>
@@ -19288,7 +19289,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="421" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>728</v>
       </c>
@@ -19320,7 +19321,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="422" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>729</v>
       </c>
@@ -19352,7 +19353,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="423" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>730</v>
       </c>
@@ -19396,7 +19397,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="424" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>732</v>
       </c>
@@ -19428,7 +19429,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="425" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>734</v>
       </c>
@@ -19460,7 +19461,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="426" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>735</v>
       </c>
@@ -19492,7 +19493,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="427" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>736</v>
       </c>
@@ -19527,7 +19528,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="428" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>738</v>
       </c>
@@ -19559,7 +19560,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="429" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>739</v>
       </c>
@@ -19591,7 +19592,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="430" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>740</v>
       </c>
@@ -19623,7 +19624,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="431" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>742</v>
       </c>
@@ -19655,7 +19656,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="432" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>743</v>
       </c>
@@ -19687,7 +19688,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="433" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>744</v>
       </c>
@@ -19719,7 +19720,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="434" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>745</v>
       </c>
@@ -19751,7 +19752,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="435" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>746</v>
       </c>
@@ -19786,7 +19787,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="436" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>748</v>
       </c>
@@ -19818,7 +19819,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="437" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>749</v>
       </c>
@@ -19850,7 +19851,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="438" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>750</v>
       </c>
@@ -19879,7 +19880,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="439" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>751</v>
       </c>
@@ -19914,7 +19915,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="440" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>753</v>
       </c>
@@ -19946,7 +19947,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="441" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>754</v>
       </c>
@@ -19978,7 +19979,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="442" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>755</v>
       </c>
@@ -20007,7 +20008,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="443" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>756</v>
       </c>
@@ -20039,7 +20040,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="444" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>757</v>
       </c>
@@ -20074,7 +20075,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="445" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>425</v>
       </c>
@@ -20112,7 +20113,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="446" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>760</v>
       </c>
@@ -20150,7 +20151,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="447" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>761</v>
       </c>
@@ -20182,7 +20183,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="448" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>762</v>
       </c>
@@ -20214,7 +20215,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="449" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>763</v>
       </c>
@@ -20249,7 +20250,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="450" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>764</v>
       </c>
@@ -20287,7 +20288,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="451" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>766</v>
       </c>
@@ -20322,7 +20323,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="452" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>768</v>
       </c>
@@ -20357,7 +20358,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="453" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>769</v>
       </c>
@@ -20389,7 +20390,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="454" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>770</v>
       </c>
@@ -20421,7 +20422,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="455" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>772</v>
       </c>
@@ -20456,7 +20457,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="456" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>774</v>
       </c>
@@ -20488,7 +20489,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="457" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>775</v>
       </c>
@@ -20523,7 +20524,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="458" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>776</v>
       </c>
@@ -20555,7 +20556,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="459" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>777</v>
       </c>
@@ -20619,7 +20620,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="461" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>779</v>
       </c>
@@ -20651,7 +20652,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="462" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>780</v>
       </c>
@@ -20683,7 +20684,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="463" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>781</v>
       </c>
@@ -20715,7 +20716,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="464" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>782</v>
       </c>
@@ -20750,7 +20751,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="465" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>785</v>
       </c>
@@ -20782,7 +20783,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="466" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>786</v>
       </c>
@@ -20817,7 +20818,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="467" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>788</v>
       </c>
@@ -20849,7 +20850,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="468" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>766</v>
       </c>
@@ -20881,7 +20882,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="469" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>789</v>
       </c>
@@ -20910,7 +20911,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="470" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>791</v>
       </c>
@@ -20942,7 +20943,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="471" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>792</v>
       </c>
@@ -20974,7 +20975,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="472" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>793</v>
       </c>
@@ -21006,7 +21007,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="473" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>794</v>
       </c>
@@ -21038,7 +21039,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="474" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>795</v>
       </c>
@@ -21070,7 +21071,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="475" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>796</v>
       </c>
@@ -21102,7 +21103,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="476" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>797</v>
       </c>
@@ -21134,7 +21135,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="477" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>798</v>
       </c>
@@ -21166,7 +21167,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="478" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>799</v>
       </c>
@@ -21204,7 +21205,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="479" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>801</v>
       </c>
@@ -21236,7 +21237,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="480" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>802</v>
       </c>
@@ -21268,7 +21269,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="481" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>803</v>
       </c>
@@ -21303,7 +21304,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="482" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>805</v>
       </c>
@@ -21335,7 +21336,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="483" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>806</v>
       </c>
@@ -21367,7 +21368,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="484" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>807</v>
       </c>
@@ -21405,7 +21406,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="485" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>809</v>
       </c>
@@ -21437,7 +21438,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="486" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>811</v>
       </c>
@@ -21469,7 +21470,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="487" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>812</v>
       </c>
@@ -21501,7 +21502,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="488" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>813</v>
       </c>
@@ -21533,7 +21534,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="489" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>814</v>
       </c>
@@ -21562,7 +21563,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="490" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>815</v>
       </c>
@@ -21594,7 +21595,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="491" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>816</v>
       </c>
@@ -21632,7 +21633,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="492" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>819</v>
       </c>
@@ -21670,7 +21671,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="493" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>821</v>
       </c>
@@ -21711,7 +21712,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="494" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>823</v>
       </c>
@@ -21743,7 +21744,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="495" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>824</v>
       </c>
@@ -21778,7 +21779,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="496" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>825</v>
       </c>
@@ -21813,7 +21814,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="497" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>827</v>
       </c>
@@ -21845,7 +21846,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="498" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>828</v>
       </c>
@@ -21883,7 +21884,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="499" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>830</v>
       </c>
@@ -21915,7 +21916,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="500" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>831</v>
       </c>
@@ -21947,7 +21948,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="501" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>832</v>
       </c>
@@ -21979,7 +21980,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="502" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>833</v>
       </c>
@@ -22011,7 +22012,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="503" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>834</v>
       </c>
@@ -22043,7 +22044,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="504" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>835</v>
       </c>
@@ -22084,7 +22085,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="505" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>837</v>
       </c>
@@ -22116,7 +22117,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="506" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>838</v>
       </c>
@@ -22148,7 +22149,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="507" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>839</v>
       </c>
@@ -22183,7 +22184,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="508" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>482</v>
       </c>
@@ -22218,7 +22219,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="509" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>841</v>
       </c>
@@ -22250,7 +22251,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="510" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>842</v>
       </c>
@@ -22282,7 +22283,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="511" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>843</v>
       </c>
@@ -22314,7 +22315,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="512" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>844</v>
       </c>
@@ -22349,7 +22350,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="513" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>814</v>
       </c>
@@ -22381,7 +22382,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="514" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>846</v>
       </c>
@@ -22416,7 +22417,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="515" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>848</v>
       </c>
@@ -22448,7 +22449,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="516" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>849</v>
       </c>
@@ -22483,7 +22484,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="517" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>851</v>
       </c>
@@ -22515,7 +22516,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="518" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>852</v>
       </c>
@@ -22547,7 +22548,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="519" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>853</v>
       </c>
@@ -22579,7 +22580,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="520" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>854</v>
       </c>
@@ -22611,7 +22612,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="521" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>856</v>
       </c>
@@ -22643,7 +22644,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="522" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>858</v>
       </c>
@@ -22675,7 +22676,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="523" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>859</v>
       </c>
@@ -22704,7 +22705,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="524" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>860</v>
       </c>
@@ -22736,7 +22737,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="525" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>861</v>
       </c>
@@ -22768,7 +22769,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="526" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>862</v>
       </c>
@@ -22803,7 +22804,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="527" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>864</v>
       </c>
@@ -22838,7 +22839,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="528" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>866</v>
       </c>
@@ -22870,7 +22871,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="529" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>867</v>
       </c>
@@ -22902,7 +22903,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="530" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>868</v>
       </c>
@@ -22934,7 +22935,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="531" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>869</v>
       </c>
@@ -22966,7 +22967,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="532" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>870</v>
       </c>
@@ -22995,7 +22996,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="533" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>871</v>
       </c>
@@ -23027,7 +23028,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="534" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>257</v>
       </c>
@@ -23059,7 +23060,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="535" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>872</v>
       </c>
@@ -23091,7 +23092,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="536" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>873</v>
       </c>
@@ -23126,7 +23127,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="537" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>874</v>
       </c>
@@ -23158,7 +23159,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="538" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>875</v>
       </c>
@@ -23190,7 +23191,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="539" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>876</v>
       </c>
@@ -23222,7 +23223,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="540" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>877</v>
       </c>
@@ -23260,7 +23261,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="541" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>879</v>
       </c>
@@ -23292,7 +23293,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="542" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>880</v>
       </c>
@@ -23324,7 +23325,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="543" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>881</v>
       </c>
@@ -23359,7 +23360,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="544" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>882</v>
       </c>
@@ -23394,7 +23395,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="545" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>883</v>
       </c>
@@ -23426,7 +23427,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="546" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>884</v>
       </c>
@@ -23458,7 +23459,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="547" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>885</v>
       </c>
@@ -23490,7 +23491,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="548" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>886</v>
       </c>
@@ -23522,7 +23523,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="549" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>887</v>
       </c>
@@ -23554,7 +23555,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="550" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>888</v>
       </c>
@@ -23592,7 +23593,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="551" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>889</v>
       </c>
@@ -23630,7 +23631,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="552" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>891</v>
       </c>
@@ -23662,7 +23663,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="553" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>892</v>
       </c>
@@ -23694,7 +23695,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="554" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>894</v>
       </c>
@@ -23726,7 +23727,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="555" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>834</v>
       </c>
@@ -23758,7 +23759,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="556" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>895</v>
       </c>
@@ -23790,7 +23791,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="557" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>896</v>
       </c>
@@ -23822,7 +23823,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="558" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>897</v>
       </c>
@@ -23854,7 +23855,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="559" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>898</v>
       </c>
@@ -23886,7 +23887,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="560" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>899</v>
       </c>
@@ -23918,7 +23919,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="561" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>900</v>
       </c>
@@ -23950,7 +23951,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="562" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>901</v>
       </c>
@@ -23982,7 +23983,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="563" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>902</v>
       </c>
@@ -24014,7 +24015,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="564" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>903</v>
       </c>
@@ -24046,7 +24047,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="565" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>904</v>
       </c>
@@ -24078,7 +24079,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="566" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>905</v>
       </c>
@@ -24116,7 +24117,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="567" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>906</v>
       </c>
@@ -24148,7 +24149,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="568" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>907</v>
       </c>
@@ -24180,7 +24181,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="569" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>908</v>
       </c>
@@ -24212,7 +24213,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="570" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>909</v>
       </c>
@@ -24244,7 +24245,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="571" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>910</v>
       </c>
@@ -24276,7 +24277,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="572" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>911</v>
       </c>
@@ -24308,7 +24309,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="573" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>912</v>
       </c>
@@ -24340,7 +24341,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="574" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>913</v>
       </c>
@@ -24372,7 +24373,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="575" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>914</v>
       </c>
@@ -24404,7 +24405,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="576" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>915</v>
       </c>
@@ -24442,7 +24443,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="577" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>917</v>
       </c>
@@ -24474,7 +24475,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="578" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>918</v>
       </c>
@@ -24506,7 +24507,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="579" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>919</v>
       </c>
@@ -24538,7 +24539,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="580" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>920</v>
       </c>
@@ -24570,7 +24571,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="581" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>921</v>
       </c>
@@ -24602,7 +24603,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="582" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>184</v>
       </c>
@@ -24634,7 +24635,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="583" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>922</v>
       </c>
@@ -24666,7 +24667,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="584" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>923</v>
       </c>
@@ -24698,7 +24699,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="585" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>925</v>
       </c>
@@ -24730,7 +24731,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="586" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>926</v>
       </c>
@@ -24762,7 +24763,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="587" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>927</v>
       </c>
@@ -24794,7 +24795,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="588" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>928</v>
       </c>
@@ -24829,7 +24830,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="589" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>929</v>
       </c>
@@ -24861,7 +24862,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="590" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>930</v>
       </c>
@@ -24893,7 +24894,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="591" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>931</v>
       </c>
@@ -24925,7 +24926,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="592" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>932</v>
       </c>
@@ -24957,7 +24958,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="593" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>933</v>
       </c>
@@ -24989,7 +24990,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="594" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>935</v>
       </c>
@@ -25021,7 +25022,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="595" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>936</v>
       </c>
@@ -25053,7 +25054,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="596" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>937</v>
       </c>
@@ -25088,7 +25089,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="597" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>939</v>
       </c>
@@ -25120,7 +25121,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="598" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>941</v>
       </c>
@@ -25155,7 +25156,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="599" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>943</v>
       </c>
@@ -25187,7 +25188,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="600" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>944</v>
       </c>
@@ -25222,7 +25223,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="601" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>946</v>
       </c>
@@ -25254,7 +25255,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="602" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>885</v>
       </c>
@@ -25286,7 +25287,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="603" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>947</v>
       </c>
@@ -25321,7 +25322,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="604" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>949</v>
       </c>
@@ -25353,7 +25354,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="605" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>950</v>
       </c>
@@ -25385,7 +25386,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="606" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>951</v>
       </c>
@@ -25417,7 +25418,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="607" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>952</v>
       </c>
@@ -25449,7 +25450,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="608" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>953</v>
       </c>
@@ -25481,7 +25482,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="609" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>954</v>
       </c>
@@ -25516,7 +25517,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="610" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>957</v>
       </c>
@@ -25554,7 +25555,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="611" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>959</v>
       </c>
@@ -25586,7 +25587,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="612" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>960</v>
       </c>
@@ -25615,7 +25616,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="613" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>961</v>
       </c>
@@ -25647,7 +25648,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="614" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>962</v>
       </c>
@@ -25679,7 +25680,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="615" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>963</v>
       </c>
@@ -25711,7 +25712,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="616" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>964</v>
       </c>
@@ -25743,7 +25744,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="617" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>966</v>
       </c>
@@ -25775,7 +25776,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="618" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>967</v>
       </c>
@@ -25807,7 +25808,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="619" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>968</v>
       </c>
@@ -25839,7 +25840,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="620" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>969</v>
       </c>
@@ -25874,7 +25875,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="621" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>971</v>
       </c>
@@ -25903,7 +25904,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="622" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>972</v>
       </c>
@@ -25932,7 +25933,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="623" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>973</v>
       </c>
@@ -25996,7 +25997,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="625" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>975</v>
       </c>
@@ -26028,7 +26029,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="626" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>976</v>
       </c>
@@ -26060,7 +26061,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="627" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>977</v>
       </c>
@@ -26092,7 +26093,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="628" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>978</v>
       </c>
@@ -26124,7 +26125,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="629" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>979</v>
       </c>
@@ -26159,7 +26160,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="630" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>981</v>
       </c>
@@ -26191,7 +26192,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="631" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>982</v>
       </c>
@@ -26223,7 +26224,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="632" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>983</v>
       </c>
@@ -26255,7 +26256,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="633" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>984</v>
       </c>
@@ -26287,7 +26288,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="634" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>985</v>
       </c>
@@ -26319,7 +26320,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="635" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>986</v>
       </c>
@@ -26351,7 +26352,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="636" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>987</v>
       </c>
@@ -26386,7 +26387,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="637" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>988</v>
       </c>
@@ -26418,7 +26419,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="638" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>989</v>
       </c>
@@ -26453,7 +26454,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="639" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>990</v>
       </c>
@@ -26491,7 +26492,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="640" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>992</v>
       </c>
@@ -26523,7 +26524,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="641" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>307</v>
       </c>
@@ -26555,7 +26556,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="642" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>993</v>
       </c>
@@ -26587,7 +26588,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="643" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>994</v>
       </c>
@@ -26619,7 +26620,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="644" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>995</v>
       </c>
@@ -26648,7 +26649,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="645" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>996</v>
       </c>
@@ -26680,7 +26681,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="646" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>997</v>
       </c>
@@ -26712,7 +26713,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="647" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>998</v>
       </c>
@@ -26744,7 +26745,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="648" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>999</v>
       </c>
@@ -26776,7 +26777,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="649" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>1000</v>
       </c>
@@ -26808,7 +26809,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="650" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>1001</v>
       </c>
@@ -26843,7 +26844,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="651" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>1003</v>
       </c>
@@ -26875,7 +26876,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="652" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>1004</v>
       </c>
@@ -26907,7 +26908,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="653" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>1005</v>
       </c>
@@ -26939,7 +26940,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="654" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>1006</v>
       </c>
@@ -26971,7 +26972,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="655" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>1007</v>
       </c>
@@ -27003,7 +27004,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="656" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>1008</v>
       </c>
@@ -27038,7 +27039,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="657" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>1009</v>
       </c>
@@ -27070,7 +27071,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="658" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>1010</v>
       </c>
@@ -27102,7 +27103,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="659" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>1012</v>
       </c>
@@ -27137,7 +27138,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="660" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
         <v>1014</v>
       </c>
@@ -27169,7 +27170,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="661" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>1015</v>
       </c>
@@ -27204,7 +27205,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="662" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>1016</v>
       </c>
@@ -27236,7 +27237,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="663" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>1017</v>
       </c>
@@ -27268,7 +27269,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="664" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
         <v>1018</v>
       </c>
@@ -27300,7 +27301,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="665" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
         <v>1019</v>
       </c>
@@ -27332,7 +27333,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="666" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>1020</v>
       </c>
@@ -27364,7 +27365,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="667" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
         <v>1021</v>
       </c>
@@ -27396,7 +27397,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="668" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
         <v>1022</v>
       </c>
@@ -27428,7 +27429,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="669" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>1023</v>
       </c>
@@ -27463,7 +27464,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="670" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>1024</v>
       </c>
@@ -27495,7 +27496,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="671" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
         <v>1025</v>
       </c>
@@ -27527,7 +27528,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="672" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
         <v>1026</v>
       </c>
@@ -27559,7 +27560,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="673" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
         <v>1027</v>
       </c>
@@ -27591,7 +27592,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="674" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
         <v>1028</v>
       </c>
@@ -27629,7 +27630,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="675" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
         <v>1030</v>
       </c>
@@ -27661,7 +27662,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="676" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
         <v>1031</v>
       </c>
@@ -27693,7 +27694,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="677" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>972</v>
       </c>
@@ -27725,7 +27726,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="678" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>1032</v>
       </c>
@@ -27757,7 +27758,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="679" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>1033</v>
       </c>
@@ -27786,7 +27787,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="680" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>1034</v>
       </c>
@@ -27818,7 +27819,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="681" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>1035</v>
       </c>
@@ -27850,7 +27851,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="682" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
         <v>1036</v>
       </c>
@@ -27882,7 +27883,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="683" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>1037</v>
       </c>
@@ -27914,7 +27915,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="684" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>1038</v>
       </c>
@@ -27946,7 +27947,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="685" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
         <v>1039</v>
       </c>
@@ -27975,7 +27976,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="686" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
         <v>1040</v>
       </c>
@@ -28007,7 +28008,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="687" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
         <v>1041</v>
       </c>
@@ -28039,7 +28040,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="688" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
         <v>1042</v>
       </c>
@@ -28071,7 +28072,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="689" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
         <v>770</v>
       </c>
@@ -28103,7 +28104,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="690" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
         <v>1043</v>
       </c>
@@ -28135,7 +28136,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="691" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
         <v>789</v>
       </c>
@@ -28167,7 +28168,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="692" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
         <v>1044</v>
       </c>
@@ -28199,7 +28200,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="693" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
         <v>1045</v>
       </c>
@@ -28231,7 +28232,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="694" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
         <v>1047</v>
       </c>
@@ -28263,7 +28264,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="695" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
         <v>1048</v>
       </c>
@@ -28292,7 +28293,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="696" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
         <v>1049</v>
       </c>
@@ -28324,7 +28325,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="697" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
         <v>1050</v>
       </c>
@@ -28356,7 +28357,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="698" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
         <v>1051</v>
       </c>
@@ -28391,7 +28392,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="699" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
         <v>1053</v>
       </c>
@@ -28423,7 +28424,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="700" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
         <v>1054</v>
       </c>
@@ -28455,7 +28456,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="701" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
         <v>1055</v>
       </c>
@@ -28487,7 +28488,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="702" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
         <v>1056</v>
       </c>
@@ -28525,7 +28526,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="703" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
         <v>1058</v>
       </c>
@@ -28557,7 +28558,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="704" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
         <v>1059</v>
       </c>
@@ -28589,7 +28590,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="705" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
         <v>1060</v>
       </c>
@@ -28624,7 +28625,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="706" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
         <v>1061</v>
       </c>
@@ -28656,7 +28657,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="707" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
         <v>1062</v>
       </c>
@@ -28688,7 +28689,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="708" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
         <v>1063</v>
       </c>
@@ -28720,7 +28721,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="709" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
         <v>1064</v>
       </c>
@@ -28752,7 +28753,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="710" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
         <v>1065</v>
       </c>
@@ -28784,7 +28785,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="711" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
         <v>1066</v>
       </c>
@@ -28816,7 +28817,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="712" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
         <v>1067</v>
       </c>
@@ -28848,7 +28849,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="713" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
         <v>1068</v>
       </c>
@@ -28883,7 +28884,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="714" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
         <v>1069</v>
       </c>
@@ -28921,7 +28922,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="715" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
         <v>1071</v>
       </c>
@@ -28962,7 +28963,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="716" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
         <v>1072</v>
       </c>
@@ -28994,7 +28995,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="717" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
         <v>1073</v>
       </c>
@@ -29026,7 +29027,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="718" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
         <v>1074</v>
       </c>
@@ -29061,7 +29062,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="719" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
         <v>1075</v>
       </c>
@@ -29093,7 +29094,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="720" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
         <v>1076</v>
       </c>
@@ -29125,7 +29126,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="721" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
         <v>1077</v>
       </c>
@@ -29157,7 +29158,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="722" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
         <v>1078</v>
       </c>
@@ -29189,7 +29190,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="723" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
         <v>1079</v>
       </c>
@@ -29221,7 +29222,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="724" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
         <v>1080</v>
       </c>
@@ -29253,7 +29254,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="725" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
         <v>1081</v>
       </c>
@@ -29285,7 +29286,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="726" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
         <v>1082</v>
       </c>
@@ -29317,7 +29318,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="727" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
         <v>1083</v>
       </c>
@@ -29346,7 +29347,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="728" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
         <v>1084</v>
       </c>
@@ -29378,7 +29379,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="729" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
         <v>1085</v>
       </c>
@@ -29410,7 +29411,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="730" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
         <v>1086</v>
       </c>
@@ -29442,7 +29443,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="731" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
         <v>1087</v>
       </c>
@@ -29474,7 +29475,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="732" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
         <v>1088</v>
       </c>
@@ -29512,7 +29513,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="733" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
         <v>1090</v>
       </c>
@@ -29544,7 +29545,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="734" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
         <v>1091</v>
       </c>
@@ -29576,7 +29577,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="735" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
         <v>1092</v>
       </c>
@@ -29608,7 +29609,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="736" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
         <v>1093</v>
       </c>
@@ -29684,7 +29685,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="738" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
         <v>1096</v>
       </c>
@@ -29719,7 +29720,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="739" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
         <v>1098</v>
       </c>
@@ -29754,7 +29755,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="740" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
         <v>1100</v>
       </c>
@@ -29786,7 +29787,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="741" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
         <v>1102</v>
       </c>
@@ -29821,7 +29822,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="742" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
         <v>1104</v>
       </c>
@@ -29853,7 +29854,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="743" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
         <v>1105</v>
       </c>
@@ -29888,7 +29889,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="744" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
         <v>1108</v>
       </c>
@@ -29923,7 +29924,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="745" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
         <v>1110</v>
       </c>
@@ -29955,7 +29956,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="746" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
         <v>1111</v>
       </c>
@@ -29987,7 +29988,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="747" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
         <v>1112</v>
       </c>
@@ -30019,7 +30020,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="748" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
         <v>1113</v>
       </c>
@@ -30051,7 +30052,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="749" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
         <v>1114</v>
       </c>
@@ -30083,7 +30084,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="750" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
         <v>1115</v>
       </c>
@@ -30124,7 +30125,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="751" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
         <v>1120</v>
       </c>
@@ -30165,7 +30166,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="752" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
         <v>1124</v>
       </c>
@@ -30206,7 +30207,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="753" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
         <v>1126</v>
       </c>
@@ -30247,7 +30248,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="754" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
         <v>1128</v>
       </c>
@@ -30285,7 +30286,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="755" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
         <v>1130</v>
       </c>
@@ -30323,7 +30324,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="756" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
         <v>1131</v>
       </c>
@@ -30361,7 +30362,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="757" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
         <v>1132</v>
       </c>
@@ -30399,7 +30400,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="758" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
         <v>1134</v>
       </c>
@@ -30440,7 +30441,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="759" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
         <v>1136</v>
       </c>
@@ -30478,7 +30479,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="760" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
         <v>1137</v>
       </c>
@@ -30516,7 +30517,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="761" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
         <v>1138</v>
       </c>
@@ -30554,7 +30555,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="762" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
         <v>1139</v>
       </c>
@@ -30592,7 +30593,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="763" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
         <v>1140</v>
       </c>
@@ -30630,7 +30631,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="764" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
         <v>1141</v>
       </c>
@@ -30668,7 +30669,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="765" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
         <v>1142</v>
       </c>
@@ -30709,7 +30710,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="766" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
         <v>1144</v>
       </c>
@@ -30750,7 +30751,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="767" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
         <v>1148</v>
       </c>
@@ -30791,7 +30792,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="768" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
         <v>1151</v>
       </c>
@@ -30832,7 +30833,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="769" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
         <v>1153</v>
       </c>
@@ -30873,7 +30874,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="770" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
         <v>1155</v>
       </c>
@@ -30955,7 +30956,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="772" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
         <v>356</v>
       </c>
@@ -30996,7 +30997,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="773" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
         <v>1162</v>
       </c>
@@ -31037,7 +31038,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="774" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
         <v>1166</v>
       </c>
@@ -31078,7 +31079,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="775" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
         <v>1168</v>
       </c>
@@ -31119,7 +31120,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="776" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
         <v>730</v>
       </c>
@@ -31160,7 +31161,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="777" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
         <v>382</v>
       </c>
@@ -31201,7 +31202,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="778" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
         <v>378</v>
       </c>
@@ -31242,7 +31243,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="779" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
         <v>375</v>
       </c>
@@ -31280,7 +31281,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="780" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
         <v>1174</v>
       </c>
@@ -31318,7 +31319,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="781" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
         <v>1175</v>
       </c>
@@ -31365,7 +31366,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="782" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
         <v>1180</v>
       </c>
@@ -32469,8 +32470,424 @@
         <v>1159</v>
       </c>
     </row>
+    <row r="809" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A809" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B809">
+        <v>15.50032</v>
+      </c>
+      <c r="C809">
+        <v>73.917180000000002</v>
+      </c>
+      <c r="D809" t="s">
+        <v>112</v>
+      </c>
+      <c r="E809" t="s">
+        <v>126</v>
+      </c>
+      <c r="F809" t="s">
+        <v>182</v>
+      </c>
+      <c r="H809" t="s">
+        <v>22</v>
+      </c>
+      <c r="I809" t="s">
+        <v>107</v>
+      </c>
+      <c r="L809" t="s">
+        <v>25</v>
+      </c>
+      <c r="M809" t="s">
+        <v>1149</v>
+      </c>
+      <c r="N809" t="s">
+        <v>103</v>
+      </c>
+      <c r="O809" t="s">
+        <v>79</v>
+      </c>
+      <c r="S809" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="810" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A810" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B810">
+        <v>15.50032</v>
+      </c>
+      <c r="C810">
+        <v>73.917180000000002</v>
+      </c>
+      <c r="D810" t="s">
+        <v>112</v>
+      </c>
+      <c r="E810" t="s">
+        <v>126</v>
+      </c>
+      <c r="F810" t="s">
+        <v>182</v>
+      </c>
+      <c r="H810" t="s">
+        <v>22</v>
+      </c>
+      <c r="I810" t="s">
+        <v>107</v>
+      </c>
+      <c r="L810" t="s">
+        <v>25</v>
+      </c>
+      <c r="M810" t="s">
+        <v>1149</v>
+      </c>
+      <c r="N810" t="s">
+        <v>103</v>
+      </c>
+      <c r="O810" t="s">
+        <v>79</v>
+      </c>
+      <c r="S810" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="811" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A811" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B811">
+        <v>15.50032</v>
+      </c>
+      <c r="C811">
+        <v>73.917180000000002</v>
+      </c>
+      <c r="D811" t="s">
+        <v>112</v>
+      </c>
+      <c r="E811" t="s">
+        <v>126</v>
+      </c>
+      <c r="F811" t="s">
+        <v>182</v>
+      </c>
+      <c r="H811" t="s">
+        <v>22</v>
+      </c>
+      <c r="I811" t="s">
+        <v>107</v>
+      </c>
+      <c r="L811" t="s">
+        <v>25</v>
+      </c>
+      <c r="M811" t="s">
+        <v>1149</v>
+      </c>
+      <c r="N811" t="s">
+        <v>103</v>
+      </c>
+      <c r="O811" t="s">
+        <v>79</v>
+      </c>
+      <c r="S811" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="812" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A812" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B812">
+        <v>15.50032</v>
+      </c>
+      <c r="C812">
+        <v>73.917180000000002</v>
+      </c>
+      <c r="D812" t="s">
+        <v>112</v>
+      </c>
+      <c r="E812" t="s">
+        <v>126</v>
+      </c>
+      <c r="F812" t="s">
+        <v>182</v>
+      </c>
+      <c r="H812" t="s">
+        <v>22</v>
+      </c>
+      <c r="I812" t="s">
+        <v>107</v>
+      </c>
+      <c r="L812" t="s">
+        <v>25</v>
+      </c>
+      <c r="M812" t="s">
+        <v>1149</v>
+      </c>
+      <c r="N812" t="s">
+        <v>103</v>
+      </c>
+      <c r="O812" t="s">
+        <v>79</v>
+      </c>
+      <c r="S812" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="813" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A813" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B813">
+        <v>15.50032</v>
+      </c>
+      <c r="C813">
+        <v>73.917180000000002</v>
+      </c>
+      <c r="D813" t="s">
+        <v>112</v>
+      </c>
+      <c r="E813" t="s">
+        <v>126</v>
+      </c>
+      <c r="F813" t="s">
+        <v>182</v>
+      </c>
+      <c r="H813" t="s">
+        <v>22</v>
+      </c>
+      <c r="I813" t="s">
+        <v>107</v>
+      </c>
+      <c r="L813" t="s">
+        <v>25</v>
+      </c>
+      <c r="M813" t="s">
+        <v>1149</v>
+      </c>
+      <c r="N813" t="s">
+        <v>103</v>
+      </c>
+      <c r="O813" t="s">
+        <v>79</v>
+      </c>
+      <c r="S813" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="814" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A814" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B814">
+        <v>15.50032</v>
+      </c>
+      <c r="C814">
+        <v>73.917180000000002</v>
+      </c>
+      <c r="D814" t="s">
+        <v>112</v>
+      </c>
+      <c r="E814" t="s">
+        <v>126</v>
+      </c>
+      <c r="F814" t="s">
+        <v>182</v>
+      </c>
+      <c r="H814" t="s">
+        <v>22</v>
+      </c>
+      <c r="I814" t="s">
+        <v>107</v>
+      </c>
+      <c r="L814" t="s">
+        <v>25</v>
+      </c>
+      <c r="M814" t="s">
+        <v>1149</v>
+      </c>
+      <c r="N814" t="s">
+        <v>103</v>
+      </c>
+      <c r="O814" t="s">
+        <v>79</v>
+      </c>
+      <c r="S814" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="815" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A815" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B815">
+        <v>15.50032</v>
+      </c>
+      <c r="C815">
+        <v>73.917180000000002</v>
+      </c>
+      <c r="D815" t="s">
+        <v>112</v>
+      </c>
+      <c r="E815" t="s">
+        <v>126</v>
+      </c>
+      <c r="F815" t="s">
+        <v>182</v>
+      </c>
+      <c r="H815" t="s">
+        <v>22</v>
+      </c>
+      <c r="I815" t="s">
+        <v>107</v>
+      </c>
+      <c r="L815" t="s">
+        <v>25</v>
+      </c>
+      <c r="M815" t="s">
+        <v>1149</v>
+      </c>
+      <c r="N815" t="s">
+        <v>103</v>
+      </c>
+      <c r="O815" t="s">
+        <v>79</v>
+      </c>
+      <c r="S815" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="816" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A816" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B816">
+        <v>15.50032</v>
+      </c>
+      <c r="C816">
+        <v>73.917180000000002</v>
+      </c>
+      <c r="D816" t="s">
+        <v>112</v>
+      </c>
+      <c r="E816" t="s">
+        <v>126</v>
+      </c>
+      <c r="F816" t="s">
+        <v>182</v>
+      </c>
+      <c r="H816" t="s">
+        <v>22</v>
+      </c>
+      <c r="I816" t="s">
+        <v>107</v>
+      </c>
+      <c r="L816" t="s">
+        <v>25</v>
+      </c>
+      <c r="M816" t="s">
+        <v>1149</v>
+      </c>
+      <c r="N816" t="s">
+        <v>103</v>
+      </c>
+      <c r="O816" t="s">
+        <v>79</v>
+      </c>
+      <c r="S816" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="817" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A817" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B817">
+        <v>15.50032</v>
+      </c>
+      <c r="C817">
+        <v>73.917180000000002</v>
+      </c>
+      <c r="D817" t="s">
+        <v>112</v>
+      </c>
+      <c r="E817" t="s">
+        <v>126</v>
+      </c>
+      <c r="F817" t="s">
+        <v>182</v>
+      </c>
+      <c r="H817" t="s">
+        <v>22</v>
+      </c>
+      <c r="I817" t="s">
+        <v>107</v>
+      </c>
+      <c r="L817" t="s">
+        <v>25</v>
+      </c>
+      <c r="M817" t="s">
+        <v>1149</v>
+      </c>
+      <c r="N817" t="s">
+        <v>103</v>
+      </c>
+      <c r="O817" t="s">
+        <v>79</v>
+      </c>
+      <c r="S817" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="818" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A818" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B818">
+        <v>15.50032</v>
+      </c>
+      <c r="C818">
+        <v>73.917180000000002</v>
+      </c>
+      <c r="D818" t="s">
+        <v>112</v>
+      </c>
+      <c r="E818" t="s">
+        <v>126</v>
+      </c>
+      <c r="F818" t="s">
+        <v>182</v>
+      </c>
+      <c r="H818" t="s">
+        <v>22</v>
+      </c>
+      <c r="I818" t="s">
+        <v>107</v>
+      </c>
+      <c r="L818" t="s">
+        <v>25</v>
+      </c>
+      <c r="M818" t="s">
+        <v>1149</v>
+      </c>
+      <c r="N818" t="s">
+        <v>103</v>
+      </c>
+      <c r="O818" t="s">
+        <v>79</v>
+      </c>
+      <c r="S818" t="s">
+        <v>1159</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:V808"/>
+  <autoFilter ref="A1:V818" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Goa"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/minerals statewise.xlsx
+++ b/minerals statewise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eded1c9e32d3d517/GIS/datasets/statewise_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{BE9781CD-51C3-4F8C-B587-622E3E652FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC9BF841-6BA4-4740-A28F-DEF081D98B3B}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{BE9781CD-51C3-4F8C-B587-622E3E652FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97BE4468-4A66-4E24-8548-53EDE8D9D054}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4112,6 +4112,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4413,7 +4417,7 @@
   <dimension ref="A1:V818"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A791" zoomScale="87" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:A818"/>
+      <selection activeCell="B797" sqref="B797"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31532,10 +31536,10 @@
         <v>1158</v>
       </c>
       <c r="B786">
-        <v>15.500109999999999</v>
+        <v>15.301500000000001</v>
       </c>
       <c r="C786">
-        <v>73.917180000000002</v>
+        <v>74.134</v>
       </c>
       <c r="D786" t="s">
         <v>112</v>
@@ -31573,10 +31577,10 @@
         <v>1158</v>
       </c>
       <c r="B787">
-        <v>15.50006</v>
+        <v>15.3695</v>
       </c>
       <c r="C787">
-        <v>73.917180000000002</v>
+        <v>74.070300000000003</v>
       </c>
       <c r="D787" t="s">
         <v>112</v>
@@ -31614,10 +31618,10 @@
         <v>1158</v>
       </c>
       <c r="B788">
-        <v>15.500120000000001</v>
+        <v>15.4124</v>
       </c>
       <c r="C788">
-        <v>73.917180000000002</v>
+        <v>73.983000000000004</v>
       </c>
       <c r="D788" t="s">
         <v>112</v>
@@ -31655,10 +31659,10 @@
         <v>1158</v>
       </c>
       <c r="B789">
-        <v>15.50013</v>
+        <v>15.5562</v>
       </c>
       <c r="C789">
-        <v>73.917180000000002</v>
+        <v>73.757499999999993</v>
       </c>
       <c r="D789" t="s">
         <v>112</v>
@@ -31696,10 +31700,10 @@
         <v>1158</v>
       </c>
       <c r="B790">
-        <v>15.50014</v>
+        <v>15.582800000000001</v>
       </c>
       <c r="C790">
-        <v>73.917180000000002</v>
+        <v>73.867000000000004</v>
       </c>
       <c r="D790" t="s">
         <v>112</v>
@@ -31737,10 +31741,10 @@
         <v>1158</v>
       </c>
       <c r="B791">
-        <v>15.50015</v>
+        <v>15.477399999999999</v>
       </c>
       <c r="C791">
-        <v>73.917180000000002</v>
+        <v>73.962999999999994</v>
       </c>
       <c r="D791" t="s">
         <v>112</v>
@@ -31778,10 +31782,10 @@
         <v>1158</v>
       </c>
       <c r="B792">
-        <v>15.500159999999999</v>
+        <v>15.5892</v>
       </c>
       <c r="C792">
-        <v>73.917180000000002</v>
+        <v>73.848500000000001</v>
       </c>
       <c r="D792" t="s">
         <v>112</v>
@@ -31819,10 +31823,10 @@
         <v>1158</v>
       </c>
       <c r="B793">
-        <v>15.500170000000001</v>
+        <v>15.6517</v>
       </c>
       <c r="C793">
-        <v>73.917180000000002</v>
+        <v>73.854900000000001</v>
       </c>
       <c r="D793" t="s">
         <v>112</v>
@@ -31860,10 +31864,10 @@
         <v>1158</v>
       </c>
       <c r="B794">
-        <v>15.50018</v>
+        <v>15.528700000000001</v>
       </c>
       <c r="C794">
-        <v>73.917180000000002</v>
+        <v>73.974699999999999</v>
       </c>
       <c r="D794" t="s">
         <v>112</v>
@@ -31901,10 +31905,10 @@
         <v>1158</v>
       </c>
       <c r="B795">
-        <v>15.50019</v>
+        <v>15.5017</v>
       </c>
       <c r="C795">
-        <v>73.917180000000002</v>
+        <v>73.925200000000004</v>
       </c>
       <c r="D795" t="s">
         <v>112</v>
@@ -31942,10 +31946,10 @@
         <v>1158</v>
       </c>
       <c r="B796">
-        <v>15.5002</v>
+        <v>15.4955</v>
       </c>
       <c r="C796">
-        <v>73.917180000000002</v>
+        <v>73.884100000000004</v>
       </c>
       <c r="D796" t="s">
         <v>112</v>
@@ -31983,10 +31987,10 @@
         <v>1158</v>
       </c>
       <c r="B797">
-        <v>15.500209999999999</v>
+        <v>15.522500000000001</v>
       </c>
       <c r="C797">
-        <v>73.917180000000002</v>
+        <v>73.873000000000005</v>
       </c>
       <c r="D797" t="s">
         <v>112</v>
@@ -32024,10 +32028,10 @@
         <v>1158</v>
       </c>
       <c r="B798">
-        <v>15.500220000000001</v>
+        <v>15.4948</v>
       </c>
       <c r="C798">
-        <v>73.917180000000002</v>
+        <v>73.867900000000006</v>
       </c>
       <c r="D798" t="s">
         <v>112</v>
@@ -32065,10 +32069,10 @@
         <v>1158</v>
       </c>
       <c r="B799">
-        <v>15.50023</v>
+        <v>15.5829</v>
       </c>
       <c r="C799">
-        <v>73.917180000000002</v>
+        <v>73.988399999999999</v>
       </c>
       <c r="D799" t="s">
         <v>112</v>
@@ -32106,10 +32110,10 @@
         <v>1158</v>
       </c>
       <c r="B800">
-        <v>15.50024</v>
+        <v>15.4932</v>
       </c>
       <c r="C800">
-        <v>73.917180000000002</v>
+        <v>73.961299999999994</v>
       </c>
       <c r="D800" t="s">
         <v>112</v>
@@ -32147,10 +32151,10 @@
         <v>1158</v>
       </c>
       <c r="B801">
-        <v>15.500249999999999</v>
+        <v>15.460900000000001</v>
       </c>
       <c r="C801">
-        <v>73.917180000000002</v>
+        <v>73.9465</v>
       </c>
       <c r="D801" t="s">
         <v>112</v>
@@ -32188,10 +32192,10 @@
         <v>1158</v>
       </c>
       <c r="B802">
-        <v>15.500260000000001</v>
+        <v>15.5388</v>
       </c>
       <c r="C802">
-        <v>73.917180000000002</v>
+        <v>73.970699999999994</v>
       </c>
       <c r="D802" t="s">
         <v>112</v>
@@ -32229,10 +32233,10 @@
         <v>1158</v>
       </c>
       <c r="B803">
-        <v>15.50027</v>
+        <v>15.607699999999999</v>
       </c>
       <c r="C803">
-        <v>73.917180000000002</v>
+        <v>73.982299999999995</v>
       </c>
       <c r="D803" t="s">
         <v>112</v>
@@ -32270,10 +32274,10 @@
         <v>1158</v>
       </c>
       <c r="B804">
-        <v>15.50028</v>
+        <v>15.5923</v>
       </c>
       <c r="C804">
-        <v>73.917180000000002</v>
+        <v>73.830200000000005</v>
       </c>
       <c r="D804" t="s">
         <v>112</v>
@@ -32311,10 +32315,10 @@
         <v>1158</v>
       </c>
       <c r="B805">
-        <v>15.50029</v>
+        <v>15.565099999999999</v>
       </c>
       <c r="C805">
-        <v>73.917180000000002</v>
+        <v>73.823099999999997</v>
       </c>
       <c r="D805" t="s">
         <v>112</v>
@@ -32352,10 +32356,10 @@
         <v>1158</v>
       </c>
       <c r="B806">
-        <v>15.500299999999999</v>
+        <v>15.593299999999999</v>
       </c>
       <c r="C806">
-        <v>73.917180000000002</v>
+        <v>73.844099999999997</v>
       </c>
       <c r="D806" t="s">
         <v>112</v>
@@ -32393,10 +32397,10 @@
         <v>1158</v>
       </c>
       <c r="B807">
-        <v>15.500310000000001</v>
+        <v>15.578799999999999</v>
       </c>
       <c r="C807">
-        <v>73.917180000000002</v>
+        <v>73.826700000000002</v>
       </c>
       <c r="D807" t="s">
         <v>112</v>
@@ -32434,10 +32438,10 @@
         <v>1158</v>
       </c>
       <c r="B808">
-        <v>15.50032</v>
+        <v>15.563700000000001</v>
       </c>
       <c r="C808">
-        <v>73.917180000000002</v>
+        <v>73.974400000000003</v>
       </c>
       <c r="D808" t="s">
         <v>112</v>
@@ -32475,10 +32479,10 @@
         <v>1158</v>
       </c>
       <c r="B809">
-        <v>15.50032</v>
+        <v>15.569699999999999</v>
       </c>
       <c r="C809">
-        <v>73.917180000000002</v>
+        <v>74.020099999999999</v>
       </c>
       <c r="D809" t="s">
         <v>112</v>
@@ -32516,10 +32520,10 @@
         <v>1158</v>
       </c>
       <c r="B810">
-        <v>15.50032</v>
+        <v>15.5235</v>
       </c>
       <c r="C810">
-        <v>73.917180000000002</v>
+        <v>73.997200000000007</v>
       </c>
       <c r="D810" t="s">
         <v>112</v>
@@ -32557,10 +32561,10 @@
         <v>1158</v>
       </c>
       <c r="B811">
-        <v>15.50032</v>
+        <v>15.504200000000001</v>
       </c>
       <c r="C811">
-        <v>73.917180000000002</v>
+        <v>73.981399999999994</v>
       </c>
       <c r="D811" t="s">
         <v>112</v>
@@ -32598,10 +32602,10 @@
         <v>1158</v>
       </c>
       <c r="B812">
-        <v>15.50032</v>
+        <v>15.502000000000001</v>
       </c>
       <c r="C812">
-        <v>73.917180000000002</v>
+        <v>73.968699999999998</v>
       </c>
       <c r="D812" t="s">
         <v>112</v>
@@ -32639,10 +32643,10 @@
         <v>1158</v>
       </c>
       <c r="B813">
-        <v>15.50032</v>
+        <v>15.4917</v>
       </c>
       <c r="C813">
-        <v>73.917180000000002</v>
+        <v>73.822999999999993</v>
       </c>
       <c r="D813" t="s">
         <v>112</v>
@@ -32680,10 +32684,10 @@
         <v>1158</v>
       </c>
       <c r="B814">
-        <v>15.50032</v>
+        <v>15.5891</v>
       </c>
       <c r="C814">
-        <v>73.917180000000002</v>
+        <v>73.842399999999998</v>
       </c>
       <c r="D814" t="s">
         <v>112</v>
@@ -32721,10 +32725,10 @@
         <v>1158</v>
       </c>
       <c r="B815">
-        <v>15.50032</v>
+        <v>15.597300000000001</v>
       </c>
       <c r="C815">
-        <v>73.917180000000002</v>
+        <v>73.830200000000005</v>
       </c>
       <c r="D815" t="s">
         <v>112</v>
@@ -32762,10 +32766,10 @@
         <v>1158</v>
       </c>
       <c r="B816">
-        <v>15.50032</v>
+        <v>15.6127</v>
       </c>
       <c r="C816">
-        <v>73.917180000000002</v>
+        <v>73.983999999999995</v>
       </c>
       <c r="D816" t="s">
         <v>112</v>
@@ -32803,10 +32807,10 @@
         <v>1158</v>
       </c>
       <c r="B817">
-        <v>15.50032</v>
+        <v>15.562900000000001</v>
       </c>
       <c r="C817">
-        <v>73.917180000000002</v>
+        <v>73.9465</v>
       </c>
       <c r="D817" t="s">
         <v>112</v>
@@ -32844,10 +32848,10 @@
         <v>1158</v>
       </c>
       <c r="B818">
-        <v>15.50032</v>
+        <v>15.5688</v>
       </c>
       <c r="C818">
-        <v>73.917180000000002</v>
+        <v>73.933099999999996</v>
       </c>
       <c r="D818" t="s">
         <v>112</v>
